--- a/dss/PyomoSolver/data_input.xlsx
+++ b/dss/PyomoSolver/data_input.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
   <si>
     <t>userId</t>
   </si>
@@ -48,28 +48,40 @@
     <t>id</t>
   </si>
   <si>
+    <t>628753</t>
+  </si>
+  <si>
     <t>141096</t>
   </si>
   <si>
-    <t>138614</t>
-  </si>
-  <si>
-    <t>2022-06-02 11:11:17</t>
-  </si>
-  <si>
-    <t>2022-06-02 11:12:00</t>
-  </si>
-  <si>
-    <t>2022-06-02 11:12:33</t>
+    <t>640501</t>
+  </si>
+  <si>
+    <t>738782</t>
+  </si>
+  <si>
+    <t>2022-06-06 18:26:05</t>
+  </si>
+  <si>
+    <t>2022-06-06 18:29:45</t>
+  </si>
+  <si>
+    <t>2022-06-06 18:33:09</t>
+  </si>
+  <si>
+    <t>2022-06-06 18:40:19</t>
   </si>
   <si>
     <t>techId</t>
   </si>
   <si>
-    <t>2022-06-02 13:46:05</t>
-  </si>
-  <si>
-    <t>2022-06-02 13:47:57</t>
+    <t>529889</t>
+  </si>
+  <si>
+    <t>2022-06-06 18:51:33</t>
+  </si>
+  <si>
+    <t>2022-06-06 18:52:12</t>
   </si>
   <si>
     <t>waste_id</t>
@@ -451,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -491,22 +503,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -518,27 +530,27 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -547,30 +559,30 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -579,10 +591,42 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>146</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>-50</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -606,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -629,77 +673,77 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>147</v>
+      </c>
+      <c r="C3">
+        <v>77</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>144</v>
-      </c>
-      <c r="C3">
-        <v>73</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C4">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -708,27 +752,27 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="F5">
         <v>30</v>
@@ -737,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +794,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -758,71 +802,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>36.293</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -830,48 +877,45 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
       <c r="D5">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -879,74 +923,68 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -954,22 +992,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -977,22 +1015,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1000,22 +1038,22 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1023,22 +1061,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1046,28 +1084,126 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
       <c r="C13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>6.846</v>
+        <v>30.561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>31.445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>31.445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dss/PyomoSolver/data_input.xlsx
+++ b/dss/PyomoSolver/data_input.xlsx
@@ -846,10 +846,7 @@
         <v>19</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>36.293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1102,10 +1099,7 @@
         <v>19</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>30.561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1151,10 +1145,7 @@
         <v>19</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>31.445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1177,10 +1168,7 @@
         <v>19</v>
       </c>
       <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>31.445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">

--- a/dss/PyomoSolver/data_input.xlsx
+++ b/dss/PyomoSolver/data_input.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>userId</t>
   </si>
@@ -48,40 +48,22 @@
     <t>id</t>
   </si>
   <si>
-    <t>628753</t>
+    <t>560428</t>
+  </si>
+  <si>
+    <t>2022-08-30 11:20:08</t>
+  </si>
+  <si>
+    <t>2022-08-30 11:20:26</t>
+  </si>
+  <si>
+    <t>techId</t>
   </si>
   <si>
     <t>141096</t>
   </si>
   <si>
-    <t>640501</t>
-  </si>
-  <si>
-    <t>738782</t>
-  </si>
-  <si>
-    <t>2022-06-06 18:26:05</t>
-  </si>
-  <si>
-    <t>2022-06-06 18:29:45</t>
-  </si>
-  <si>
-    <t>2022-06-06 18:33:09</t>
-  </si>
-  <si>
-    <t>2022-06-06 18:40:19</t>
-  </si>
-  <si>
-    <t>techId</t>
-  </si>
-  <si>
-    <t>529889</t>
-  </si>
-  <si>
-    <t>2022-06-06 18:51:33</t>
-  </si>
-  <si>
-    <t>2022-06-06 18:52:12</t>
+    <t>2022-08-30 11:16:50</t>
   </si>
   <si>
     <t>waste_id</t>
@@ -463,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,22 +485,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -530,27 +512,27 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -559,74 +541,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
         <v>12</v>
-      </c>
-      <c r="B4">
-        <v>145</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>200</v>
-      </c>
-      <c r="F4">
-        <v>-10</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>146</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>-50</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +554,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -650,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -673,13 +591,13 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>147</v>
       </c>
       <c r="C2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -694,97 +612,39 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>147</v>
       </c>
       <c r="C3">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>147</v>
-      </c>
-      <c r="C4">
-        <v>78</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>500</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>147</v>
-      </c>
-      <c r="C5">
-        <v>79</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>1000</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +654,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -802,71 +662,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>13.515</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -874,22 +737,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -897,301 +760,28 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>77</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>76</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>78</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>76</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>77</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>79</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>13.515</v>
       </c>
     </row>
   </sheetData>

--- a/dss/PyomoSolver/data_input.xlsx
+++ b/dss/PyomoSolver/data_input.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
   <si>
     <t>userId</t>
   </si>
@@ -48,22 +48,49 @@
     <t>id</t>
   </si>
   <si>
+    <t>141096</t>
+  </si>
+  <si>
+    <t>142093</t>
+  </si>
+  <si>
+    <t>2022-09-13 15:38:38</t>
+  </si>
+  <si>
+    <t>2022-09-13 15:39:24</t>
+  </si>
+  <si>
+    <t>2022-09-13 15:40:11</t>
+  </si>
+  <si>
+    <t>2022-09-13 15:40:58</t>
+  </si>
+  <si>
+    <t>2022-09-13 15:41:45</t>
+  </si>
+  <si>
+    <t>2022-09-13 15:42:33</t>
+  </si>
+  <si>
+    <t>techId</t>
+  </si>
+  <si>
     <t>560428</t>
   </si>
   <si>
-    <t>2022-08-30 11:20:08</t>
-  </si>
-  <si>
-    <t>2022-08-30 11:20:26</t>
-  </si>
-  <si>
-    <t>techId</t>
-  </si>
-  <si>
-    <t>141096</t>
-  </si>
-  <si>
-    <t>2022-08-30 11:16:50</t>
+    <t>560422</t>
+  </si>
+  <si>
+    <t>560425</t>
+  </si>
+  <si>
+    <t>2022-09-13 15:49:56</t>
+  </si>
+  <si>
+    <t>2022-09-13 15:50:39</t>
+  </si>
+  <si>
+    <t>2022-09-13 15:51:23</t>
   </si>
   <si>
     <t>waste_id</t>
@@ -445,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,10 +512,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -497,10 +524,10 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>-11</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -512,27 +539,27 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>257</v>
       </c>
       <c r="F3">
-        <v>-10</v>
+        <v>48</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -544,7 +571,135 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>375</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>378</v>
+      </c>
+      <c r="F5">
+        <v>-13</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>483</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>476</v>
+      </c>
+      <c r="F7">
+        <v>-16</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -554,13 +709,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -568,83 +723,115 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>485</v>
+      </c>
+      <c r="G2">
+        <v>257</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>164</v>
+      </c>
+      <c r="G3">
+        <v>173</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>147</v>
-      </c>
-      <c r="C2">
-        <v>85</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>500</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>147</v>
-      </c>
-      <c r="C3">
-        <v>86</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>367</v>
+      </c>
+      <c r="G4">
+        <v>189</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +841,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -662,74 +849,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>13.515</v>
+        <v>13.094</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,22 +924,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -760,28 +947,356 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>13.515</v>
+        <v>13.094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>13.411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>13.848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
